--- a/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -684,10 +684,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -705,22 +705,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$C$2:$C$9</c:f>
+              <c:f>Tenfold_Coarse!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87858826437114301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87610466097607997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86868248456790198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86205150462963098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85050003616898195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84236050829475295</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -745,10 +757,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -766,22 +778,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$D$2:$D$9</c:f>
+              <c:f>Tenfold_Coarse!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87064814230132004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87088785545637404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.862864597014948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85672728618601501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84493480108346797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83530049876066004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -806,10 +830,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -827,22 +851,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$E$2:$E$9</c:f>
+              <c:f>Tenfold_Coarse!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78732638888888895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78559027777777801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77430555555555602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75954861111111105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75434027777777801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -867,10 +903,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -888,22 +924,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$F$2:$F$9</c:f>
+              <c:f>Tenfold_Coarse!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.80381944444444398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80381944444444398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79513888888888895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77430555555555602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78298611111111105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -928,10 +976,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -949,44 +997,56 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$G$2:$G$9</c:f>
+              <c:f>Tenfold_Coarse!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.78993055555555602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77951388888888895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75347222222222199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74479166666666696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72569444444444398</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65705856"/>
-        <c:axId val="65707392"/>
+        <c:axId val="80358784"/>
+        <c:axId val="82799232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65705856"/>
+        <c:axId val="80358784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65707392"/>
+        <c:crossAx val="82799232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65707392"/>
+        <c:axId val="82799232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1054,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65705856"/>
+        <c:crossAx val="80358784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1007,7 +1067,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1656,23 +1716,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80480512"/>
-        <c:axId val="80490496"/>
+        <c:axId val="107161856"/>
+        <c:axId val="52494720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80480512"/>
+        <c:axId val="107161856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80490496"/>
+        <c:crossAx val="52494720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80490496"/>
+        <c:axId val="52494720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1740,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80480512"/>
+        <c:crossAx val="107161856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,7 +1753,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4883,23 +4943,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58636544"/>
-        <c:axId val="58651008"/>
+        <c:axId val="52577792"/>
+        <c:axId val="52579328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58636544"/>
+        <c:axId val="52577792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58651008"/>
+        <c:crossAx val="52579328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58651008"/>
+        <c:axId val="52579328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4967,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58636544"/>
+        <c:crossAx val="52577792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4920,7 +4980,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8110,23 +8170,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80926208"/>
-        <c:axId val="80927744"/>
+        <c:axId val="52662656"/>
+        <c:axId val="52664192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80926208"/>
+        <c:axId val="52662656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80927744"/>
+        <c:crossAx val="52664192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80927744"/>
+        <c:axId val="52664192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8134,7 +8194,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80926208"/>
+        <c:crossAx val="52662656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8146,7 +8206,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8164,7 +8224,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10597,10 +10657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10641,6 +10701,30 @@
       <c r="B2">
         <v>500</v>
       </c>
+      <c r="C2">
+        <v>0.87858826437114301</v>
+      </c>
+      <c r="D2">
+        <v>0.87064814230132004</v>
+      </c>
+      <c r="E2">
+        <v>0.796875</v>
+      </c>
+      <c r="F2">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="G2">
+        <v>0.78993055555555602</v>
+      </c>
+      <c r="H2">
+        <v>0.79280821917808197</v>
+      </c>
+      <c r="I2">
+        <v>0.79827586206896595</v>
+      </c>
+      <c r="J2">
+        <v>0.59380727584058102</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -10649,6 +10733,30 @@
       <c r="B3">
         <v>1500</v>
       </c>
+      <c r="C3">
+        <v>0.87610466097607997</v>
+      </c>
+      <c r="D3">
+        <v>0.87088785545637404</v>
+      </c>
+      <c r="E3">
+        <v>0.78732638888888895</v>
+      </c>
+      <c r="F3">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="G3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="H3">
+        <v>0.77815126050420202</v>
+      </c>
+      <c r="I3">
+        <v>0.79077711357813796</v>
+      </c>
+      <c r="J3">
+        <v>0.57496566824957096</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -10657,6 +10765,30 @@
       <c r="B4">
         <v>2500</v>
       </c>
+      <c r="C4">
+        <v>0.86868248456790198</v>
+      </c>
+      <c r="D4">
+        <v>0.862864597014948</v>
+      </c>
+      <c r="E4">
+        <v>0.78559027777777801</v>
+      </c>
+      <c r="F4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G4">
+        <v>0.77951388888888895</v>
+      </c>
+      <c r="H4">
+        <v>0.78216123499142398</v>
+      </c>
+      <c r="I4">
+        <v>0.786885245901639</v>
+      </c>
+      <c r="J4">
+        <v>0.57122273905850296</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -10665,6 +10797,30 @@
       <c r="B5">
         <v>3500</v>
       </c>
+      <c r="C5">
+        <v>0.86205150462963098</v>
+      </c>
+      <c r="D5">
+        <v>0.85672728618601501</v>
+      </c>
+      <c r="E5">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="F5">
+        <v>0.79513888888888895</v>
+      </c>
+      <c r="G5">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="H5">
+        <v>0.76333333333333298</v>
+      </c>
+      <c r="I5">
+        <v>0.77891156462584998</v>
+      </c>
+      <c r="J5">
+        <v>0.549087957016964</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -10673,6 +10829,30 @@
       <c r="B6">
         <v>4500</v>
       </c>
+      <c r="C6">
+        <v>0.85050003616898195</v>
+      </c>
+      <c r="D6">
+        <v>0.84493480108346797</v>
+      </c>
+      <c r="E6">
+        <v>0.75954861111111105</v>
+      </c>
+      <c r="F6">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="G6">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="H6">
+        <v>0.75210792580101204</v>
+      </c>
+      <c r="I6">
+        <v>0.763045337895637</v>
+      </c>
+      <c r="J6">
+        <v>0.51932345494585197</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -10681,21 +10861,29 @@
       <c r="B7">
         <v>5500</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7500</v>
+      <c r="C7">
+        <v>0.84236050829475295</v>
+      </c>
+      <c r="D7">
+        <v>0.83530049876066004</v>
+      </c>
+      <c r="E7">
+        <v>0.75434027777777801</v>
+      </c>
+      <c r="F7">
+        <v>0.78298611111111105</v>
+      </c>
+      <c r="G7">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="H7">
+        <v>0.74055829228242998</v>
+      </c>
+      <c r="I7">
+        <v>0.76118143459915599</v>
+      </c>
+      <c r="J7">
+        <v>0.50951744635033502</v>
       </c>
     </row>
   </sheetData>
@@ -10709,7 +10897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:J16"/>
     </sheetView>
   </sheetViews>

--- a/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
@@ -684,10 +684,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -705,34 +705,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$C$2:$C$7</c:f>
+              <c:f>Tenfold_Coarse!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.87858826437114301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87610466097607997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86868248456790198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86205150462963098</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85050003616898195</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84236050829475295</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -757,10 +745,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -778,34 +766,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$D$2:$D$7</c:f>
+              <c:f>Tenfold_Coarse!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.87064814230132004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87088785545637404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.862864597014948</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85672728618601501</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84493480108346797</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83530049876066004</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -830,10 +806,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -851,34 +827,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$E$2:$E$7</c:f>
+              <c:f>Tenfold_Coarse!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.796875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78732638888888895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78559027777777801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77430555555555602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75954861111111105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75434027777777801</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -903,10 +867,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -924,34 +888,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$F$2:$F$7</c:f>
+              <c:f>Tenfold_Coarse!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.80381944444444398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80381944444444398</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79513888888888895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77430555555555602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78298611111111105</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -976,10 +928,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$B$2:$B$7</c:f>
+              <c:f>Tenfold_Coarse!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -997,56 +949,44 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Coarse!$G$2:$G$7</c:f>
+              <c:f>Tenfold_Coarse!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.78993055555555602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77083333333333304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77951388888888895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75347222222222199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74479166666666696</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72569444444444398</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80358784"/>
-        <c:axId val="82799232"/>
+        <c:axId val="47344256"/>
+        <c:axId val="47354240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80358784"/>
+        <c:axId val="47344256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82799232"/>
+        <c:crossAx val="47354240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82799232"/>
+        <c:axId val="47354240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +994,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80358784"/>
+        <c:crossAx val="47344256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1067,7 +1007,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1716,23 +1656,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107161856"/>
-        <c:axId val="52494720"/>
+        <c:axId val="47459328"/>
+        <c:axId val="47465216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107161856"/>
+        <c:axId val="47459328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52494720"/>
+        <c:crossAx val="47465216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52494720"/>
+        <c:axId val="47465216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1680,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107161856"/>
+        <c:crossAx val="47459328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1753,7 +1693,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4943,23 +4883,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="52577792"/>
-        <c:axId val="52579328"/>
+        <c:axId val="85456768"/>
+        <c:axId val="85458304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52577792"/>
+        <c:axId val="85456768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52579328"/>
+        <c:crossAx val="85458304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52579328"/>
+        <c:axId val="85458304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4967,20 +4907,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52577792"/>
+        <c:crossAx val="85456768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8170,23 +8109,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="52662656"/>
-        <c:axId val="52664192"/>
+        <c:axId val="106550016"/>
+        <c:axId val="106551552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52662656"/>
+        <c:axId val="106550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52664192"/>
+        <c:crossAx val="106551552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52664192"/>
+        <c:axId val="106551552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8194,7 +8133,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52662656"/>
+        <c:crossAx val="106550016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8206,7 +8145,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8251,16 +8190,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10657,10 +10596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10701,30 +10640,6 @@
       <c r="B2">
         <v>500</v>
       </c>
-      <c r="C2">
-        <v>0.87858826437114301</v>
-      </c>
-      <c r="D2">
-        <v>0.87064814230132004</v>
-      </c>
-      <c r="E2">
-        <v>0.796875</v>
-      </c>
-      <c r="F2">
-        <v>0.80381944444444398</v>
-      </c>
-      <c r="G2">
-        <v>0.78993055555555602</v>
-      </c>
-      <c r="H2">
-        <v>0.79280821917808197</v>
-      </c>
-      <c r="I2">
-        <v>0.79827586206896595</v>
-      </c>
-      <c r="J2">
-        <v>0.59380727584058102</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -10733,30 +10648,6 @@
       <c r="B3">
         <v>1500</v>
       </c>
-      <c r="C3">
-        <v>0.87610466097607997</v>
-      </c>
-      <c r="D3">
-        <v>0.87088785545637404</v>
-      </c>
-      <c r="E3">
-        <v>0.78732638888888895</v>
-      </c>
-      <c r="F3">
-        <v>0.80381944444444398</v>
-      </c>
-      <c r="G3">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="H3">
-        <v>0.77815126050420202</v>
-      </c>
-      <c r="I3">
-        <v>0.79077711357813796</v>
-      </c>
-      <c r="J3">
-        <v>0.57496566824957096</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -10765,30 +10656,6 @@
       <c r="B4">
         <v>2500</v>
       </c>
-      <c r="C4">
-        <v>0.86868248456790198</v>
-      </c>
-      <c r="D4">
-        <v>0.862864597014948</v>
-      </c>
-      <c r="E4">
-        <v>0.78559027777777801</v>
-      </c>
-      <c r="F4">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G4">
-        <v>0.77951388888888895</v>
-      </c>
-      <c r="H4">
-        <v>0.78216123499142398</v>
-      </c>
-      <c r="I4">
-        <v>0.786885245901639</v>
-      </c>
-      <c r="J4">
-        <v>0.57122273905850296</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -10797,30 +10664,6 @@
       <c r="B5">
         <v>3500</v>
       </c>
-      <c r="C5">
-        <v>0.86205150462963098</v>
-      </c>
-      <c r="D5">
-        <v>0.85672728618601501</v>
-      </c>
-      <c r="E5">
-        <v>0.77430555555555602</v>
-      </c>
-      <c r="F5">
-        <v>0.79513888888888895</v>
-      </c>
-      <c r="G5">
-        <v>0.75347222222222199</v>
-      </c>
-      <c r="H5">
-        <v>0.76333333333333298</v>
-      </c>
-      <c r="I5">
-        <v>0.77891156462584998</v>
-      </c>
-      <c r="J5">
-        <v>0.549087957016964</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -10829,30 +10672,6 @@
       <c r="B6">
         <v>4500</v>
       </c>
-      <c r="C6">
-        <v>0.85050003616898195</v>
-      </c>
-      <c r="D6">
-        <v>0.84493480108346797</v>
-      </c>
-      <c r="E6">
-        <v>0.75954861111111105</v>
-      </c>
-      <c r="F6">
-        <v>0.77430555555555602</v>
-      </c>
-      <c r="G6">
-        <v>0.74479166666666696</v>
-      </c>
-      <c r="H6">
-        <v>0.75210792580101204</v>
-      </c>
-      <c r="I6">
-        <v>0.763045337895637</v>
-      </c>
-      <c r="J6">
-        <v>0.51932345494585197</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -10861,29 +10680,21 @@
       <c r="B7">
         <v>5500</v>
       </c>
-      <c r="C7">
-        <v>0.84236050829475295</v>
-      </c>
-      <c r="D7">
-        <v>0.83530049876066004</v>
-      </c>
-      <c r="E7">
-        <v>0.75434027777777801</v>
-      </c>
-      <c r="F7">
-        <v>0.78298611111111105</v>
-      </c>
-      <c r="G7">
-        <v>0.72569444444444398</v>
-      </c>
-      <c r="H7">
-        <v>0.74055829228242998</v>
-      </c>
-      <c r="I7">
-        <v>0.76118143459915599</v>
-      </c>
-      <c r="J7">
-        <v>0.50951744635033502</v>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
@@ -10895,15 +10706,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -10932,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10963,8 +10774,15 @@
       <c r="J2">
         <v>0.48389055726241098</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0.84172647378369403</v>
+      </c>
+      <c r="L2">
+        <f>(K2-D2)/D2*100</f>
+        <v>8.180453117825726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10995,8 +10813,15 @@
       <c r="J3">
         <v>0.52331374264580099</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0.86333467179162005</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L16" si="0">(K3-D3)/D3*100</f>
+        <v>8.0845004604175728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11027,8 +10852,15 @@
       <c r="J4">
         <v>0.54719306614687402</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0.86606585618733301</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>6.2600927918692566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11059,8 +10891,15 @@
       <c r="J5">
         <v>0.56050522466563402</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0.87956695949327501</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>7.7278074974987083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11091,8 +10930,15 @@
       <c r="J6">
         <v>0.55272602761703005</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0.86880182535679795</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>7.1931356318024875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11123,8 +10969,15 @@
       <c r="J7">
         <v>0.57591967793763399</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0.86566513663507305</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>5.2794541003818685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11155,8 +11008,15 @@
       <c r="J8">
         <v>0.56440308145216</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0.87134975511702395</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>5.8342552289050555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11187,8 +11047,15 @@
       <c r="J9">
         <v>0.56203505670029796</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0.866026498128463</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>4.7781258974509893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11219,8 +11086,15 @@
       <c r="J10">
         <v>0.59611803329651203</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0.86992160858807199</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>4.8757024453883533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11251,8 +11125,15 @@
       <c r="J11">
         <v>0.57668272828589295</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0.87098430575866803</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>4.9738655762268564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11283,8 +11164,15 @@
       <c r="J12">
         <v>0.56099260625955905</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0.87257554093872602</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>5.1444055078414781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11315,8 +11203,15 @@
       <c r="J13">
         <v>0.54418566095816701</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0.87719897772228705</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>6.3831708266702485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11347,8 +11242,15 @@
       <c r="J14">
         <v>0.55479483319151401</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.87609715864016402</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>5.8198152212325684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11379,8 +11281,15 @@
       <c r="J15">
         <v>0.55534147588286997</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.86607923667435205</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>4.1378151635828768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11410,6 +11319,19 @@
       </c>
       <c r="J16">
         <v>0.56395133039910905</v>
+      </c>
+      <c r="K16">
+        <v>0.87339564767614797</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>6.0104500158764038</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17">
+        <f>AVERAGE(L2:L16)</f>
+        <v>6.0455366321980311</v>
       </c>
     </row>
   </sheetData>
@@ -11424,8 +11346,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13236,38 +13158,38 @@
         <v>3.1213069853237158E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51">
+    <row r="51" spans="1:12" s="2" customFormat="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>500</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0.86197823826500397</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>0.81058491688985401</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>0.78549848942598199</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>0.66701388888888902</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>0.87673796791443803</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>0.80648824471050695</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>0.730115276355075</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>0.56169237758287105</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <f t="shared" si="1"/>
         <v>2.0456484030676609</v>
       </c>
@@ -13653,8 +13575,8 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -707,12 +707,6 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -722,6 +716,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.86515894236482704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86467269199346497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86050881053178796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84731158088235303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84428499145870195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83084637737670897</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -768,12 +780,6 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -783,6 +789,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.81397146548249599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82604769583815596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82754386626317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81151581941736595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80482703921154597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.794030780985167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -829,12 +853,6 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -844,6 +862,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.78474320241691797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78474320241691797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79154078549848905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76812688821752295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75906344410876103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74848942598187296</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -890,12 +926,6 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -905,6 +935,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.67013888888888895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67534722222222199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65798611111111105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63715277777777801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -951,12 +999,6 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -966,28 +1008,46 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.87299465240641705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87165775401069501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88101604278074896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85160427807486605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83422459893048095</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79574144"/>
-        <c:axId val="79575680"/>
+        <c:axId val="98171904"/>
+        <c:axId val="98972416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79574144"/>
+        <c:axId val="98171904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79575680"/>
+        <c:crossAx val="98972416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79575680"/>
+        <c:axId val="98972416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,19 +1055,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79574144"/>
+        <c:crossAx val="98171904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1656,23 +1717,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79607296"/>
-        <c:axId val="79608832"/>
+        <c:axId val="99024256"/>
+        <c:axId val="99558528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79607296"/>
+        <c:axId val="99024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79608832"/>
+        <c:crossAx val="99558528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79608832"/>
+        <c:axId val="99558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1741,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79607296"/>
+        <c:crossAx val="99024256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1692,7 +1753,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4882,23 +4943,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89452928"/>
-        <c:axId val="89454464"/>
+        <c:axId val="99621120"/>
+        <c:axId val="99639296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89452928"/>
+        <c:axId val="99621120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89454464"/>
+        <c:crossAx val="99639296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89454464"/>
+        <c:axId val="99639296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4906,7 +4967,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89452928"/>
+        <c:crossAx val="99621120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4918,7 +4979,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8108,23 +8169,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89644032"/>
-        <c:axId val="89719552"/>
+        <c:axId val="99849344"/>
+        <c:axId val="99850880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89644032"/>
+        <c:axId val="99849344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89719552"/>
+        <c:crossAx val="99850880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89719552"/>
+        <c:axId val="99850880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8132,7 +8193,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89644032"/>
+        <c:crossAx val="99849344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8144,7 +8205,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12560,10 +12621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12604,6 +12665,30 @@
       <c r="B2">
         <v>500</v>
       </c>
+      <c r="C2">
+        <v>0.86515894236482704</v>
+      </c>
+      <c r="D2">
+        <v>0.81397146548249599</v>
+      </c>
+      <c r="E2">
+        <v>0.78474320241691797</v>
+      </c>
+      <c r="F2">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="G2">
+        <v>0.87299465240641705</v>
+      </c>
+      <c r="H2">
+        <v>0.80249480249480298</v>
+      </c>
+      <c r="I2">
+        <v>0.73036896877956503</v>
+      </c>
+      <c r="J2">
+        <v>0.55986373702690595</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -12612,6 +12697,30 @@
       <c r="B3">
         <v>1500</v>
       </c>
+      <c r="C3">
+        <v>0.86467269199346497</v>
+      </c>
+      <c r="D3">
+        <v>0.82604769583815596</v>
+      </c>
+      <c r="E3">
+        <v>0.78474320241691797</v>
+      </c>
+      <c r="F3">
+        <v>0.671875</v>
+      </c>
+      <c r="G3">
+        <v>0.87165775401069501</v>
+      </c>
+      <c r="H3">
+        <v>0.80124223602484501</v>
+      </c>
+      <c r="I3">
+        <v>0.73087818696883899</v>
+      </c>
+      <c r="J3">
+        <v>0.55977847898976796</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -12620,6 +12729,30 @@
       <c r="B4">
         <v>2500</v>
       </c>
+      <c r="C4">
+        <v>0.86050881053178796</v>
+      </c>
+      <c r="D4">
+        <v>0.82754386626317</v>
+      </c>
+      <c r="E4">
+        <v>0.79154078549848905</v>
+      </c>
+      <c r="F4">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G4">
+        <v>0.88101604278074896</v>
+      </c>
+      <c r="H4">
+        <v>0.81380753138075301</v>
+      </c>
+      <c r="I4">
+        <v>0.73814041745730596</v>
+      </c>
+      <c r="J4">
+        <v>0.57427691397476499</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -12628,6 +12761,30 @@
       <c r="B5">
         <v>3500</v>
       </c>
+      <c r="C5">
+        <v>0.84731158088235303</v>
+      </c>
+      <c r="D5">
+        <v>0.81151581941736595</v>
+      </c>
+      <c r="E5">
+        <v>0.76812688821752295</v>
+      </c>
+      <c r="F5">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G5">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="H5">
+        <v>0.77505112474437599</v>
+      </c>
+      <c r="I5">
+        <v>0.71173708920187795</v>
+      </c>
+      <c r="J5">
+        <v>0.52483582420747399</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -12636,6 +12793,30 @@
       <c r="B6">
         <v>4500</v>
       </c>
+      <c r="C6">
+        <v>0.84428499145870195</v>
+      </c>
+      <c r="D6">
+        <v>0.80482703921154597</v>
+      </c>
+      <c r="E6">
+        <v>0.75906344410876103</v>
+      </c>
+      <c r="F6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G6">
+        <v>0.85160427807486605</v>
+      </c>
+      <c r="H6">
+        <v>0.76826722338204601</v>
+      </c>
+      <c r="I6">
+        <v>0.69763033175355404</v>
+      </c>
+      <c r="J6">
+        <v>0.50605636436152202</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -12644,21 +12825,29 @@
       <c r="B7">
         <v>5500</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7500</v>
+      <c r="C7">
+        <v>0.83084637737670897</v>
+      </c>
+      <c r="D7">
+        <v>0.794030780985167</v>
+      </c>
+      <c r="E7">
+        <v>0.74848942598187296</v>
+      </c>
+      <c r="F7">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="G7">
+        <v>0.83422459893048095</v>
+      </c>
+      <c r="H7">
+        <v>0.74745417515274903</v>
+      </c>
+      <c r="I7">
+        <v>0.68791002811621405</v>
+      </c>
+      <c r="J7">
+        <v>0.483801854805534</v>
       </c>
     </row>
   </sheetData>
@@ -17504,7 +17693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Unbalanced_SvmRFE2_comb.xlsx
@@ -707,6 +707,12 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -733,6 +739,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.83084637737670897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82807161690433395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82491389074569099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,6 +792,12 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -806,6 +824,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.794030780985167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78687743541257804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78272404415867003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,6 +877,12 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -879,6 +909,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.74848942598187296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76208459214501501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74773413897281005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,6 +962,12 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -952,6 +994,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.63715277777777801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65451388888888895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,6 +1047,12 @@
                 <c:pt idx="5">
                   <c:v>5500</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1026,28 +1080,34 @@
                 <c:pt idx="5">
                   <c:v>0.83422459893048095</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84491978609625695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83021390374331505</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98171904"/>
-        <c:axId val="98972416"/>
+        <c:axId val="98565120"/>
+        <c:axId val="98579200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98171904"/>
+        <c:axId val="98565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98972416"/>
+        <c:crossAx val="98579200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98972416"/>
+        <c:axId val="98579200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1115,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98171904"/>
+        <c:crossAx val="98565120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1068,7 +1128,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1717,23 +1777,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="99024256"/>
-        <c:axId val="99558528"/>
+        <c:axId val="98631040"/>
+        <c:axId val="99427456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99024256"/>
+        <c:axId val="98631040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99558528"/>
+        <c:crossAx val="99427456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99558528"/>
+        <c:axId val="99427456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1801,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99024256"/>
+        <c:crossAx val="98631040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1753,7 +1813,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4943,23 +5003,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="99621120"/>
-        <c:axId val="99639296"/>
+        <c:axId val="100083968"/>
+        <c:axId val="100106240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99621120"/>
+        <c:axId val="100083968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99639296"/>
+        <c:crossAx val="100106240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99639296"/>
+        <c:axId val="100106240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4967,7 +5027,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99621120"/>
+        <c:crossAx val="100083968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4979,7 +5039,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8169,23 +8229,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="99849344"/>
-        <c:axId val="99850880"/>
+        <c:axId val="100177024"/>
+        <c:axId val="100178560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99849344"/>
+        <c:axId val="100177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99850880"/>
+        <c:crossAx val="100178560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99850880"/>
+        <c:axId val="100178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8193,7 +8253,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99849344"/>
+        <c:crossAx val="100177024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8205,7 +8265,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12621,10 +12681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A8" sqref="A8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12848,6 +12908,70 @@
       </c>
       <c r="J7">
         <v>0.483801854805534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6500</v>
+      </c>
+      <c r="C8">
+        <v>0.82807161690433395</v>
+      </c>
+      <c r="D8">
+        <v>0.78687743541257804</v>
+      </c>
+      <c r="E8">
+        <v>0.76208459214501501</v>
+      </c>
+      <c r="F8">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="G8">
+        <v>0.84491978609625695</v>
+      </c>
+      <c r="H8">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="I8">
+        <v>0.70533208606174003</v>
+      </c>
+      <c r="J8">
+        <v>0.51217206925623204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7500</v>
+      </c>
+      <c r="C9">
+        <v>0.82491389074569099</v>
+      </c>
+      <c r="D9">
+        <v>0.78272404415867003</v>
+      </c>
+      <c r="E9">
+        <v>0.74773413897281005</v>
+      </c>
+      <c r="F9">
+        <v>0.640625</v>
+      </c>
+      <c r="G9">
+        <v>0.83021390374331505</v>
+      </c>
+      <c r="H9">
+        <v>0.74395161290322598</v>
+      </c>
+      <c r="I9">
+        <v>0.68843283582089598</v>
+      </c>
+      <c r="J9">
+        <v>0.48225681531897202</v>
       </c>
     </row>
   </sheetData>
